--- a/src/analysis_examples/circadb/results_lomb/cosinor_10369295_anapc16_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10369295_anapc16_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.25084448727697517, 0.3974262302259455]</t>
+          <t>[0.25004464027582235, 0.3982260772270983]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>8.213044244698153e-09</v>
+        <v>9.873798889614704e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>8.213044244698153e-09</v>
+        <v>9.873798889614704e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.4025263860455386</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.37029836630308666, 0.4504989842619366]</t>
+          <t>[0.37025441528147907, 0.45054293528354417]</t>
         </is>
       </c>
       <c r="U2" t="n">
